--- a/A02RNLQ_ENGINEER RECONCILIATION REPORT.xlsx
+++ b/A02RNLQ_ENGINEER RECONCILIATION REPORT.xlsx
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c s="10" r="I44">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c s="4" t="str" r="J44"/>
       <c s="6" t="str" r="K44"/>
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c s="10" r="I45">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c s="4" t="str" r="J45"/>
       <c s="6" t="str" r="K45"/>

--- a/A02RNLQ_ENGINEER RECONCILIATION REPORT.xlsx
+++ b/A02RNLQ_ENGINEER RECONCILIATION REPORT.xlsx
@@ -1017,7 +1017,7 @@
       </c>
       <c s="4" t="inlineStr" r="J42">
         <is>
-          <t xml:space="preserve">2407</t>
+          <t xml:space="preserve">2357</t>
         </is>
       </c>
       <c s="6" t="str" r="K42"/>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c s="10" r="I44">
-        <v>554</v>
+        <v>504</v>
       </c>
       <c s="4" t="str" r="J44"/>
       <c s="6" t="str" r="K44"/>
@@ -1093,7 +1093,7 @@
       </c>
       <c s="4" t="inlineStr" r="J46">
         <is>
-          <t xml:space="preserve">2407</t>
+          <t xml:space="preserve">2357</t>
         </is>
       </c>
       <c s="6" t="str" r="K46"/>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c s="10" r="I47">
-        <v>981</v>
+        <v>931</v>
       </c>
       <c s="4" t="str" r="J47"/>
       <c s="6" t="str" r="K47"/>
